--- a/biology/Zoologie/Carouge_unicolore/Carouge_unicolore.xlsx
+++ b/biology/Zoologie/Carouge_unicolore/Carouge_unicolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agelasticus cyanopus
 Le Carouge unicolore (Agelasticus cyanopus) est une espèce de passereau de la famille des ictéridés qu’on retrouve en Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge unicolore se retrouve dans le nord de l’Argentine, dans le sud-ouest, au nord et sur la côte est du Brésil, au Paraguay et dans le nord et l’est de la Bolivie.
 </t>
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe quatre sous-espèces :
 A. c. atroolivaceus (Wied-Neuwied, 1831) – la population côtière dans le sud-est du Brésil
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carouge unicolore se voit rarement loin des marécages et des étangs peuplés de végétation émergente de bonne taille.
 </t>
@@ -608,7 +626,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce carouge niche en colonies lâches.  Le nid est placé dans un buisson ou dans la végétation émergente à moins de deux mètres du sol ou de l’eau.  Le nid ressemble à celui du Carouge à épaulettes.  Les œufs sont généralement au nombre de trois.  Le Vacher luisant pond parfois ses œufs dans son nid.
 </t>
